--- a/input/EL/reg_RMSE.xlsx
+++ b/input/EL/reg_RMSE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsEU\input\EL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4932F8-7879-41C1-B594-A446DF04E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56015971-8A0B-454B-A4E6-21E64F058350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="UK" sheetId="2" r:id="rId2"/>
     <sheet name="IT" sheetId="3" r:id="rId3"/>
     <sheet name="PL" sheetId="4" r:id="rId4"/>
-    <sheet name="EL" sheetId="5" r:id="rId5"/>
+    <sheet name="RMSE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/input/EL/reg_RMSE.xlsx
+++ b/input/EL/reg_RMSE.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsEU\input\EL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/EL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56015971-8A0B-454B-A4E6-21E64F058350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474FE2BE-DD49-5648-9FBC-90015AFD8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="UK" sheetId="2" r:id="rId2"/>
-    <sheet name="IT" sheetId="3" r:id="rId3"/>
-    <sheet name="PL" sheetId="4" r:id="rId4"/>
-    <sheet name="RMSE" sheetId="5" r:id="rId5"/>
+    <sheet name="RMSE" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date modified</t>
   </si>
@@ -57,9 +54,6 @@
     <t>COEFFICIENT</t>
   </si>
   <si>
-    <t>HM1</t>
-  </si>
-  <si>
     <t>I3a</t>
   </si>
   <si>
@@ -76,45 +70,12 @@
   </si>
   <si>
     <t>Wages_FemalesNE</t>
-  </si>
-  <si>
-    <t>C1b</t>
-  </si>
-  <si>
-    <t>S2g</t>
-  </si>
-  <si>
-    <t>S2h</t>
-  </si>
-  <si>
-    <t>S2i</t>
-  </si>
-  <si>
-    <t>S2j</t>
-  </si>
-  <si>
-    <t>S2k</t>
-  </si>
-  <si>
-    <t>S1b</t>
-  </si>
-  <si>
-    <t>I4b</t>
-  </si>
-  <si>
-    <t>S3e</t>
-  </si>
-  <si>
-    <t>I5b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,6 +92,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,14 +117,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -452,14 +410,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,50 +425,50 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -521,329 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530F7AD6-02C1-41F5-9B11-F88D7B76E795}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.5511963385465366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.56378226458419012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.3588496779494994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.37499140584966989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>2.4158001968775116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1.8361431734912119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>1.5969934128957666</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>884.81552442493353</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>1.528311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>1.1671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>1.2093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>0.98887999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.95128999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.84714999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.94330000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>1.2788999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>4.4850000000000003</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA17ED43-A333-4863-9108-47B84B48F4F1}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.78402799000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.780405829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.41129760100000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.42725606100000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.656046431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.389078416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B52D91-862E-459C-B8A1-E5C1A5D5C4F0}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.77710092075167148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.80966819962611325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.40685676867032922</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0.48603505601304164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1.0366294171387864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1.0108885888661292</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893BB49F-CF19-4603-AFB7-6E78A149B7C0}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -851,51 +494,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0.68700237315658907</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.60980188127721924</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.44340598457435321</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0.41540500765020927</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0583553400000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
-        <v>1.0583553400000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.166366832</v>
       </c>
     </row>
